--- a/network-map.xlsx
+++ b/network-map.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLAUDIA.DIBENE\Documents\WPy64-3950\notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilvo-my.sharepoint.com/personal/guillaume_blanchy_ilvo_vlaanderen_be/Documents/ilvo/climasoma/wp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A7B2A8-A2B1-40BD-8A64-E00BEB287B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="172">
   <si>
     <t>label</t>
   </si>
@@ -542,15 +541,12 @@
   </si>
   <si>
     <t>LIFE Seq-Cure</t>
-  </si>
-  <si>
-    <t>ITERREG TOPSOIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,7 +613,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -928,20 +924,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C366"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D358" sqref="D358"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -955,7 +951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -966,11 +962,11 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -982,7 +978,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -994,7 +990,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1006,7 +1002,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1014,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1030,7 +1026,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1042,7 +1038,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>123</v>
       </c>
@@ -1053,11 +1049,11 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1070,7 +1066,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1083,7 +1079,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1096,7 +1092,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1109,7 +1105,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1122,7 +1118,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1135,7 +1131,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1148,7 +1144,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1161,7 +1157,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1174,7 +1170,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1183,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>124</v>
       </c>
@@ -1198,11 +1194,11 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +1211,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1228,7 +1224,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1241,7 +1237,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,7 +1250,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1267,7 +1263,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1280,7 +1276,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1293,7 +1289,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1306,7 +1302,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
@@ -1317,11 +1313,11 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1334,7 +1330,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,7 +1343,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +1356,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -1373,7 +1369,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1382,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
@@ -1399,7 +1395,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>126</v>
       </c>
@@ -1410,11 +1406,11 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -1427,7 +1423,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -1440,7 +1436,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1453,7 +1449,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -1466,7 +1462,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -1479,7 +1475,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -1492,7 +1488,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -1505,7 +1501,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
@@ -1518,7 +1514,7 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
@@ -1529,11 +1525,11 @@
         <v>5</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
@@ -1546,7 +1542,7 @@
       </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
@@ -1559,7 +1555,7 @@
       </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -1572,7 +1568,7 @@
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>31</v>
       </c>
@@ -1585,7 +1581,7 @@
       </c>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>32</v>
       </c>
@@ -1598,7 +1594,7 @@
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -1611,7 +1607,7 @@
       </c>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>33</v>
       </c>
@@ -1624,7 +1620,7 @@
       </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
@@ -1637,7 +1633,7 @@
       </c>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>15</v>
       </c>
@@ -1650,7 +1646,7 @@
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>128</v>
       </c>
@@ -1661,11 +1657,11 @@
         <v>5</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
@@ -1678,7 +1674,7 @@
       </c>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>35</v>
       </c>
@@ -1691,7 +1687,7 @@
       </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>14</v>
       </c>
@@ -1704,7 +1700,7 @@
       </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,7 +1713,7 @@
       </c>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -1730,7 +1726,7 @@
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>18</v>
       </c>
@@ -1743,7 +1739,7 @@
       </c>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -1756,7 +1752,7 @@
       </c>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>15</v>
       </c>
@@ -1769,7 +1765,7 @@
       </c>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>142</v>
       </c>
@@ -1780,11 +1776,11 @@
         <v>5</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -1797,7 +1793,7 @@
       </c>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
@@ -1810,7 +1806,7 @@
       </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>26</v>
       </c>
@@ -1823,7 +1819,7 @@
       </c>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
@@ -1836,7 +1832,7 @@
       </c>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>36</v>
       </c>
@@ -1849,7 +1845,7 @@
       </c>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,7 +1858,7 @@
       </c>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,7 +1871,7 @@
       </c>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>129</v>
       </c>
@@ -1886,11 +1882,11 @@
         <v>5</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -1903,7 +1899,7 @@
       </c>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>24</v>
       </c>
@@ -1916,7 +1912,7 @@
       </c>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>14</v>
       </c>
@@ -1929,7 +1925,7 @@
       </c>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
@@ -1942,7 +1938,7 @@
       </c>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>38</v>
       </c>
@@ -1955,7 +1951,7 @@
       </c>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
@@ -1968,7 +1964,7 @@
       </c>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>39</v>
       </c>
@@ -1981,7 +1977,7 @@
       </c>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>30</v>
       </c>
@@ -1994,7 +1990,7 @@
       </c>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -2007,7 +2003,7 @@
       </c>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>130</v>
       </c>
@@ -2022,7 +2018,7 @@
       </c>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -2035,7 +2031,7 @@
       </c>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>40</v>
       </c>
@@ -2048,7 +2044,7 @@
       </c>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,7 +2057,7 @@
       </c>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>24</v>
       </c>
@@ -2074,7 +2070,7 @@
       </c>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>41</v>
       </c>
@@ -2087,7 +2083,7 @@
       </c>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -2100,7 +2096,7 @@
       </c>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>21</v>
       </c>
@@ -2113,7 +2109,7 @@
       </c>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>25</v>
       </c>
@@ -2126,7 +2122,7 @@
       </c>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>39</v>
       </c>
@@ -2139,7 +2135,7 @@
       </c>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -2152,7 +2148,7 @@
       </c>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -2165,7 +2161,7 @@
       </c>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>131</v>
       </c>
@@ -2176,11 +2172,11 @@
         <v>5</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -2193,7 +2189,7 @@
       </c>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>24</v>
       </c>
@@ -2206,7 +2202,7 @@
       </c>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>14</v>
       </c>
@@ -2219,7 +2215,7 @@
       </c>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>26</v>
       </c>
@@ -2232,7 +2228,7 @@
       </c>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>42</v>
       </c>
@@ -2245,7 +2241,7 @@
       </c>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>43</v>
       </c>
@@ -2258,7 +2254,7 @@
       </c>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>48</v>
       </c>
@@ -2271,7 +2267,7 @@
       </c>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>44</v>
       </c>
@@ -2284,7 +2280,7 @@
       </c>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>30</v>
       </c>
@@ -2297,7 +2293,7 @@
       </c>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>45</v>
       </c>
@@ -2310,7 +2306,7 @@
       </c>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>132</v>
       </c>
@@ -2321,11 +2317,11 @@
         <v>5</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>40</v>
       </c>
@@ -2338,7 +2334,7 @@
       </c>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>14</v>
       </c>
@@ -2351,7 +2347,7 @@
       </c>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>46</v>
       </c>
@@ -2364,7 +2360,7 @@
       </c>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>25</v>
       </c>
@@ -2377,7 +2373,7 @@
       </c>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>47</v>
       </c>
@@ -2390,7 +2386,7 @@
       </c>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>37</v>
       </c>
@@ -2403,7 +2399,7 @@
       </c>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>48</v>
       </c>
@@ -2416,7 +2412,7 @@
       </c>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>49</v>
       </c>
@@ -2429,7 +2425,7 @@
       </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>30</v>
       </c>
@@ -2442,7 +2438,7 @@
       </c>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>133</v>
       </c>
@@ -2453,11 +2449,11 @@
         <v>5</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>28</v>
       </c>
@@ -2470,7 +2466,7 @@
       </c>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>11</v>
       </c>
@@ -2483,7 +2479,7 @@
       </c>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>14</v>
       </c>
@@ -2496,7 +2492,7 @@
       </c>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
@@ -2509,7 +2505,7 @@
       </c>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>21</v>
       </c>
@@ -2522,7 +2518,7 @@
       </c>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>33</v>
       </c>
@@ -2535,7 +2531,7 @@
       </c>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>38</v>
       </c>
@@ -2548,7 +2544,7 @@
       </c>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>30</v>
       </c>
@@ -2561,7 +2557,7 @@
       </c>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>19</v>
       </c>
@@ -2574,7 +2570,7 @@
       </c>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>15</v>
       </c>
@@ -2587,7 +2583,7 @@
       </c>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>134</v>
       </c>
@@ -2598,11 +2594,11 @@
         <v>5</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>11</v>
       </c>
@@ -2615,7 +2611,7 @@
       </c>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>14</v>
       </c>
@@ -2628,7 +2624,7 @@
       </c>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>13</v>
       </c>
@@ -2641,7 +2637,7 @@
       </c>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>15</v>
       </c>
@@ -2654,7 +2650,7 @@
       </c>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>170</v>
       </c>
@@ -2665,11 +2661,11 @@
         <v>5</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>11</v>
       </c>
@@ -2682,7 +2678,7 @@
       </c>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>50</v>
       </c>
@@ -2695,7 +2691,7 @@
       </c>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>51</v>
       </c>
@@ -2708,7 +2704,7 @@
       </c>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>42</v>
       </c>
@@ -2721,7 +2717,7 @@
       </c>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>52</v>
       </c>
@@ -2734,7 +2730,7 @@
       </c>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>53</v>
       </c>
@@ -2747,7 +2743,7 @@
       </c>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>54</v>
       </c>
@@ -2760,7 +2756,7 @@
       </c>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>15</v>
       </c>
@@ -2773,7 +2769,7 @@
       </c>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>55</v>
       </c>
@@ -2786,7 +2782,7 @@
       </c>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>135</v>
       </c>
@@ -2801,7 +2797,7 @@
       </c>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>28</v>
       </c>
@@ -2814,7 +2810,7 @@
       </c>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>11</v>
       </c>
@@ -2827,7 +2823,7 @@
       </c>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>14</v>
       </c>
@@ -2840,7 +2836,7 @@
       </c>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>15</v>
       </c>
@@ -2853,7 +2849,7 @@
       </c>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>56</v>
       </c>
@@ -2866,7 +2862,7 @@
       </c>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>57</v>
       </c>
@@ -2879,7 +2875,7 @@
       </c>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>136</v>
       </c>
@@ -2890,11 +2886,11 @@
         <v>5</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>28</v>
       </c>
@@ -2907,7 +2903,7 @@
       </c>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>11</v>
       </c>
@@ -2920,7 +2916,7 @@
       </c>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>14</v>
       </c>
@@ -2933,7 +2929,7 @@
       </c>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>51</v>
       </c>
@@ -2946,7 +2942,7 @@
       </c>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>42</v>
       </c>
@@ -2959,7 +2955,7 @@
       </c>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>58</v>
       </c>
@@ -2972,7 +2968,7 @@
       </c>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>53</v>
       </c>
@@ -2985,7 +2981,7 @@
       </c>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>52</v>
       </c>
@@ -2998,7 +2994,7 @@
       </c>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>59</v>
       </c>
@@ -3011,7 +3007,7 @@
       </c>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>15</v>
       </c>
@@ -3024,7 +3020,7 @@
       </c>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>137</v>
       </c>
@@ -3035,11 +3031,11 @@
         <v>5</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>28</v>
       </c>
@@ -3052,7 +3048,7 @@
       </c>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>11</v>
       </c>
@@ -3065,7 +3061,7 @@
       </c>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>24</v>
       </c>
@@ -3078,7 +3074,7 @@
       </c>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>51</v>
       </c>
@@ -3091,7 +3087,7 @@
       </c>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>51</v>
       </c>
@@ -3104,7 +3100,7 @@
       </c>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>53</v>
       </c>
@@ -3117,7 +3113,7 @@
       </c>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>52</v>
       </c>
@@ -3130,7 +3126,7 @@
       </c>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>25</v>
       </c>
@@ -3143,7 +3139,7 @@
       </c>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>37</v>
       </c>
@@ -3156,7 +3152,7 @@
       </c>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>15</v>
       </c>
@@ -3169,7 +3165,7 @@
       </c>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>57</v>
       </c>
@@ -3182,7 +3178,7 @@
       </c>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>138</v>
       </c>
@@ -3193,11 +3189,11 @@
         <v>5</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>11</v>
       </c>
@@ -3210,7 +3206,7 @@
       </c>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>60</v>
       </c>
@@ -3223,7 +3219,7 @@
       </c>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>15</v>
       </c>
@@ -3236,7 +3232,7 @@
       </c>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>61</v>
       </c>
@@ -3249,7 +3245,7 @@
       </c>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>57</v>
       </c>
@@ -3262,7 +3258,7 @@
       </c>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>56</v>
       </c>
@@ -3275,7 +3271,7 @@
       </c>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>139</v>
       </c>
@@ -3290,7 +3286,7 @@
       </c>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>11</v>
       </c>
@@ -3302,7 +3298,7 @@
       </c>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>32</v>
       </c>
@@ -3314,7 +3310,7 @@
       </c>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>16</v>
       </c>
@@ -3326,7 +3322,7 @@
       </c>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>62</v>
       </c>
@@ -3338,7 +3334,7 @@
       </c>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>63</v>
       </c>
@@ -3350,7 +3346,7 @@
       </c>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>25</v>
       </c>
@@ -3362,7 +3358,7 @@
       </c>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>15</v>
       </c>
@@ -3374,7 +3370,7 @@
       </c>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>140</v>
       </c>
@@ -3385,11 +3381,11 @@
         <v>5</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>28</v>
       </c>
@@ -3402,7 +3398,7 @@
       </c>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>11</v>
       </c>
@@ -3415,7 +3411,7 @@
       </c>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>14</v>
       </c>
@@ -3428,7 +3424,7 @@
       </c>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>51</v>
       </c>
@@ -3441,7 +3437,7 @@
       </c>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>42</v>
       </c>
@@ -3454,7 +3450,7 @@
       </c>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>52</v>
       </c>
@@ -3467,7 +3463,7 @@
       </c>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>15</v>
       </c>
@@ -3480,7 +3476,7 @@
       </c>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>61</v>
       </c>
@@ -3493,7 +3489,7 @@
       </c>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>57</v>
       </c>
@@ -3506,7 +3502,7 @@
       </c>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>141</v>
       </c>
@@ -3517,11 +3513,11 @@
         <v>5</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>28</v>
       </c>
@@ -3534,7 +3530,7 @@
       </c>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>11</v>
       </c>
@@ -3547,7 +3543,7 @@
       </c>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>14</v>
       </c>
@@ -3560,7 +3556,7 @@
       </c>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>51</v>
       </c>
@@ -3573,7 +3569,7 @@
       </c>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>42</v>
       </c>
@@ -3586,7 +3582,7 @@
       </c>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>38</v>
       </c>
@@ -3599,7 +3595,7 @@
       </c>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>53</v>
       </c>
@@ -3612,7 +3608,7 @@
       </c>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>52</v>
       </c>
@@ -3625,7 +3621,7 @@
       </c>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>34</v>
       </c>
@@ -3638,7 +3634,7 @@
       </c>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>15</v>
       </c>
@@ -3651,7 +3647,7 @@
       </c>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>143</v>
       </c>
@@ -3662,11 +3658,11 @@
         <v>5</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>11</v>
       </c>
@@ -3679,7 +3675,7 @@
       </c>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>64</v>
       </c>
@@ -3692,7 +3688,7 @@
       </c>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>14</v>
       </c>
@@ -3705,7 +3701,7 @@
       </c>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>51</v>
       </c>
@@ -3718,7 +3714,7 @@
       </c>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>65</v>
       </c>
@@ -3731,7 +3727,7 @@
       </c>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>21</v>
       </c>
@@ -3744,7 +3740,7 @@
       </c>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>66</v>
       </c>
@@ -3757,7 +3753,7 @@
       </c>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>67</v>
       </c>
@@ -3770,7 +3766,7 @@
       </c>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>15</v>
       </c>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>144</v>
       </c>
@@ -3794,11 +3790,11 @@
         <v>5</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>11</v>
       </c>
@@ -3810,7 +3806,7 @@
       </c>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>68</v>
       </c>
@@ -3822,7 +3818,7 @@
       </c>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>14</v>
       </c>
@@ -3834,7 +3830,7 @@
       </c>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>51</v>
       </c>
@@ -3846,7 +3842,7 @@
       </c>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>21</v>
       </c>
@@ -3858,7 +3854,7 @@
       </c>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>69</v>
       </c>
@@ -3870,7 +3866,7 @@
       </c>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>70</v>
       </c>
@@ -3882,7 +3878,7 @@
       </c>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>15</v>
       </c>
@@ -3894,7 +3890,7 @@
       </c>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>71</v>
       </c>
@@ -3906,7 +3902,7 @@
       </c>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>72</v>
       </c>
@@ -3918,7 +3914,7 @@
       </c>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>145</v>
       </c>
@@ -3933,7 +3929,7 @@
       </c>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>11</v>
       </c>
@@ -3945,7 +3941,7 @@
       </c>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>14</v>
       </c>
@@ -3957,7 +3953,7 @@
       </c>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>51</v>
       </c>
@@ -3969,7 +3965,7 @@
       </c>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>21</v>
       </c>
@@ -3981,7 +3977,7 @@
       </c>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>15</v>
       </c>
@@ -3993,7 +3989,7 @@
       </c>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>56</v>
       </c>
@@ -4005,7 +4001,7 @@
       </c>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>57</v>
       </c>
@@ -4017,7 +4013,7 @@
       </c>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>73</v>
       </c>
@@ -4029,7 +4025,7 @@
       </c>
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>146</v>
       </c>
@@ -4044,7 +4040,7 @@
       </c>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>11</v>
       </c>
@@ -4056,7 +4052,7 @@
       </c>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>23</v>
       </c>
@@ -4068,7 +4064,7 @@
       </c>
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>74</v>
       </c>
@@ -4080,7 +4076,7 @@
       </c>
       <c r="E240" s="2"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>14</v>
       </c>
@@ -4092,7 +4088,7 @@
       </c>
       <c r="E241" s="2"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>51</v>
       </c>
@@ -4104,7 +4100,7 @@
       </c>
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>75</v>
       </c>
@@ -4116,7 +4112,7 @@
       </c>
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>21</v>
       </c>
@@ -4128,7 +4124,7 @@
       </c>
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>76</v>
       </c>
@@ -4140,7 +4136,7 @@
       </c>
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>38</v>
       </c>
@@ -4152,7 +4148,7 @@
       </c>
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>77</v>
       </c>
@@ -4164,7 +4160,7 @@
       </c>
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>15</v>
       </c>
@@ -4177,7 +4173,7 @@
       </c>
       <c r="E248" s="2"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>78</v>
       </c>
@@ -4190,7 +4186,7 @@
       </c>
       <c r="E249" s="2"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>30</v>
       </c>
@@ -4203,7 +4199,7 @@
       </c>
       <c r="E250" s="2"/>
     </row>
-    <row r="251" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>147</v>
       </c>
@@ -4214,11 +4210,11 @@
         <v>5</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E251" s="2"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>11</v>
       </c>
@@ -4230,7 +4226,7 @@
       </c>
       <c r="E252" s="2"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>64</v>
       </c>
@@ -4242,7 +4238,7 @@
       </c>
       <c r="E253" s="2"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>79</v>
       </c>
@@ -4254,7 +4250,7 @@
       </c>
       <c r="E254" s="2"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>25</v>
       </c>
@@ -4266,7 +4262,7 @@
       </c>
       <c r="E255" s="2"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>15</v>
       </c>
@@ -4278,7 +4274,7 @@
       </c>
       <c r="E256" s="2"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>80</v>
       </c>
@@ -4290,7 +4286,7 @@
       </c>
       <c r="E257" s="2"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>81</v>
       </c>
@@ -4302,7 +4298,7 @@
       </c>
       <c r="E258" s="2"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>148</v>
       </c>
@@ -4317,7 +4313,7 @@
       </c>
       <c r="E259" s="2"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>11</v>
       </c>
@@ -4329,7 +4325,7 @@
       </c>
       <c r="E260" s="2"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>14</v>
       </c>
@@ -4341,7 +4337,7 @@
       </c>
       <c r="E261" s="2"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>51</v>
       </c>
@@ -4353,7 +4349,7 @@
       </c>
       <c r="E262" s="2"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>69</v>
       </c>
@@ -4365,7 +4361,7 @@
       </c>
       <c r="E263" s="2"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>82</v>
       </c>
@@ -4377,7 +4373,7 @@
       </c>
       <c r="E264" s="2"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>83</v>
       </c>
@@ -4389,7 +4385,7 @@
       </c>
       <c r="E265" s="2"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>84</v>
       </c>
@@ -4401,7 +4397,7 @@
       </c>
       <c r="E266" s="2"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>15</v>
       </c>
@@ -4413,7 +4409,7 @@
       </c>
       <c r="E267" s="2"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>30</v>
       </c>
@@ -4426,7 +4422,7 @@
       </c>
       <c r="E268" s="2"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>85</v>
       </c>
@@ -4439,7 +4435,7 @@
       </c>
       <c r="E269" s="2"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>149</v>
       </c>
@@ -4454,7 +4450,7 @@
       </c>
       <c r="E270" s="2"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>11</v>
       </c>
@@ -4466,7 +4462,7 @@
       </c>
       <c r="E271" s="2"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>23</v>
       </c>
@@ -4478,7 +4474,7 @@
       </c>
       <c r="E272" s="2"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>21</v>
       </c>
@@ -4490,7 +4486,7 @@
       </c>
       <c r="E273" s="2"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>86</v>
       </c>
@@ -4502,7 +4498,7 @@
       </c>
       <c r="E274" s="2"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>87</v>
       </c>
@@ -4514,7 +4510,7 @@
       </c>
       <c r="E275" s="2"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>15</v>
       </c>
@@ -4526,7 +4522,7 @@
       </c>
       <c r="E276" s="2"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>72</v>
       </c>
@@ -4538,7 +4534,7 @@
       </c>
       <c r="E277" s="2"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>88</v>
       </c>
@@ -4551,7 +4547,7 @@
       </c>
       <c r="E278" s="2"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>81</v>
       </c>
@@ -4564,7 +4560,7 @@
       </c>
       <c r="E279" s="2"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>89</v>
       </c>
@@ -4577,7 +4573,7 @@
       </c>
       <c r="E280" s="2"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>90</v>
       </c>
@@ -4590,7 +4586,7 @@
       </c>
       <c r="E281" s="2"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>150</v>
       </c>
@@ -4605,7 +4601,7 @@
       </c>
       <c r="E282" s="2"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>11</v>
       </c>
@@ -4617,7 +4613,7 @@
       </c>
       <c r="E283" s="2"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>91</v>
       </c>
@@ -4629,7 +4625,7 @@
       </c>
       <c r="E284" s="2"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>23</v>
       </c>
@@ -4641,7 +4637,7 @@
       </c>
       <c r="E285" s="2"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>79</v>
       </c>
@@ -4653,7 +4649,7 @@
       </c>
       <c r="E286" s="2"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>92</v>
       </c>
@@ -4665,7 +4661,7 @@
       </c>
       <c r="E287" s="2"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>21</v>
       </c>
@@ -4677,7 +4673,7 @@
       </c>
       <c r="E288" s="2"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>53</v>
       </c>
@@ -4690,7 +4686,7 @@
       </c>
       <c r="E289" s="2"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>15</v>
       </c>
@@ -4703,7 +4699,7 @@
       </c>
       <c r="E290" s="2"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>93</v>
       </c>
@@ -4716,7 +4712,7 @@
       </c>
       <c r="E291" s="2"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>72</v>
       </c>
@@ -4729,7 +4725,7 @@
       </c>
       <c r="E292" s="2"/>
     </row>
-    <row r="293" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>151</v>
       </c>
@@ -4740,11 +4736,11 @@
         <v>5</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E293" s="2"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>11</v>
       </c>
@@ -4756,7 +4752,7 @@
       </c>
       <c r="E294" s="2"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>91</v>
       </c>
@@ -4768,7 +4764,7 @@
       </c>
       <c r="E295" s="2"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>23</v>
       </c>
@@ -4780,7 +4776,7 @@
       </c>
       <c r="E296" s="2"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>79</v>
       </c>
@@ -4792,7 +4788,7 @@
       </c>
       <c r="E297" s="2"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>92</v>
       </c>
@@ -4804,7 +4800,7 @@
       </c>
       <c r="E298" s="2"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>21</v>
       </c>
@@ -4817,7 +4813,7 @@
       </c>
       <c r="E299" s="2"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>15</v>
       </c>
@@ -4830,7 +4826,7 @@
       </c>
       <c r="E300" s="2"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>93</v>
       </c>
@@ -4843,7 +4839,7 @@
       </c>
       <c r="E301" s="2"/>
     </row>
-    <row r="302" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>152</v>
       </c>
@@ -4854,11 +4850,11 @@
         <v>5</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E302" s="2"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>11</v>
       </c>
@@ -4870,7 +4866,7 @@
       </c>
       <c r="E303" s="2"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>94</v>
       </c>
@@ -4882,7 +4878,7 @@
       </c>
       <c r="E304" s="2"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>40</v>
       </c>
@@ -4894,7 +4890,7 @@
       </c>
       <c r="E305" s="2"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>95</v>
       </c>
@@ -4906,7 +4902,7 @@
       </c>
       <c r="E306" s="2"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>24</v>
       </c>
@@ -4919,7 +4915,7 @@
       </c>
       <c r="E307" s="2"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>14</v>
       </c>
@@ -4932,7 +4928,7 @@
       </c>
       <c r="E308" s="2"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>51</v>
       </c>
@@ -4945,7 +4941,7 @@
       </c>
       <c r="E309" s="2"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>96</v>
       </c>
@@ -4958,7 +4954,7 @@
       </c>
       <c r="E310" s="2"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>97</v>
       </c>
@@ -4971,7 +4967,7 @@
       </c>
       <c r="E311" s="2"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>98</v>
       </c>
@@ -4984,7 +4980,7 @@
       </c>
       <c r="E312" s="2"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>99</v>
       </c>
@@ -4997,7 +4993,7 @@
       </c>
       <c r="E313" s="2"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>100</v>
       </c>
@@ -5010,7 +5006,7 @@
       </c>
       <c r="E314" s="2"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>15</v>
       </c>
@@ -5023,7 +5019,7 @@
       </c>
       <c r="E315" s="2"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>101</v>
       </c>
@@ -5036,7 +5032,7 @@
       </c>
       <c r="E316" s="2"/>
     </row>
-    <row r="317" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>153</v>
       </c>
@@ -5047,11 +5043,11 @@
         <v>5</v>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E317" s="2"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>11</v>
       </c>
@@ -5063,7 +5059,7 @@
       </c>
       <c r="E318" s="2"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>64</v>
       </c>
@@ -5075,7 +5071,7 @@
       </c>
       <c r="E319" s="2"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>15</v>
       </c>
@@ -5087,7 +5083,7 @@
       </c>
       <c r="E320" s="2"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>30</v>
       </c>
@@ -5100,7 +5096,7 @@
       </c>
       <c r="E321" s="2"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>102</v>
       </c>
@@ -5113,7 +5109,7 @@
       </c>
       <c r="E322" s="2"/>
     </row>
-    <row r="323" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>154</v>
       </c>
@@ -5124,11 +5120,11 @@
         <v>5</v>
       </c>
       <c r="D323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E323" s="2"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>7</v>
       </c>
@@ -5140,7 +5136,7 @@
       </c>
       <c r="E324" s="2"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>11</v>
       </c>
@@ -5152,7 +5148,7 @@
       </c>
       <c r="E325" s="2"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>103</v>
       </c>
@@ -5165,7 +5161,7 @@
       </c>
       <c r="E326" s="2"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>104</v>
       </c>
@@ -5178,7 +5174,7 @@
       </c>
       <c r="E327" s="2"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>86</v>
       </c>
@@ -5191,7 +5187,7 @@
       </c>
       <c r="E328" s="2"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>105</v>
       </c>
@@ -5204,7 +5200,7 @@
       </c>
       <c r="E329" s="2"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>106</v>
       </c>
@@ -5217,7 +5213,7 @@
       </c>
       <c r="E330" s="2"/>
     </row>
-    <row r="331" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>155</v>
       </c>
@@ -5228,11 +5224,11 @@
         <v>5</v>
       </c>
       <c r="D331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E331" s="2"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>11</v>
       </c>
@@ -5244,7 +5240,7 @@
       </c>
       <c r="E332" s="2"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>23</v>
       </c>
@@ -5257,7 +5253,7 @@
       </c>
       <c r="E333" s="2"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>24</v>
       </c>
@@ -5270,7 +5266,7 @@
       </c>
       <c r="E334" s="2"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>14</v>
       </c>
@@ -5283,7 +5279,7 @@
       </c>
       <c r="E335" s="2"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>51</v>
       </c>
@@ -5296,7 +5292,7 @@
       </c>
       <c r="E336" s="2"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>79</v>
       </c>
@@ -5309,7 +5305,7 @@
       </c>
       <c r="E337" s="2"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>92</v>
       </c>
@@ -5322,7 +5318,7 @@
       </c>
       <c r="E338" s="2"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>21</v>
       </c>
@@ -5335,7 +5331,7 @@
       </c>
       <c r="E339" s="2"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>53</v>
       </c>
@@ -5348,7 +5344,7 @@
       </c>
       <c r="E340" s="2"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>107</v>
       </c>
@@ -5361,7 +5357,7 @@
       </c>
       <c r="E341" s="2"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>72</v>
       </c>
@@ -5374,7 +5370,7 @@
       </c>
       <c r="E342" s="2"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>108</v>
       </c>
@@ -5387,7 +5383,7 @@
       </c>
       <c r="E343" s="2"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>81</v>
       </c>
@@ -5400,7 +5396,7 @@
       </c>
       <c r="E344" s="2"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>30</v>
       </c>
@@ -5413,7 +5409,7 @@
       </c>
       <c r="E345" s="2"/>
     </row>
-    <row r="346" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>156</v>
       </c>
@@ -5424,11 +5420,11 @@
         <v>5</v>
       </c>
       <c r="D346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E346" s="2"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>11</v>
       </c>
@@ -5441,7 +5437,7 @@
       </c>
       <c r="E347" s="2"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>109</v>
       </c>
@@ -5454,7 +5450,7 @@
       </c>
       <c r="E348" s="2"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>68</v>
       </c>
@@ -5467,7 +5463,7 @@
       </c>
       <c r="E349" s="2"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>111</v>
       </c>
@@ -5480,7 +5476,7 @@
       </c>
       <c r="E350" s="2"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>112</v>
       </c>
@@ -5493,7 +5489,7 @@
       </c>
       <c r="E351" s="2"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>113</v>
       </c>
@@ -5506,7 +5502,7 @@
       </c>
       <c r="E352" s="2"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>114</v>
       </c>
@@ -5519,7 +5515,7 @@
       </c>
       <c r="E353" s="2"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>115</v>
       </c>
@@ -5532,7 +5528,7 @@
       </c>
       <c r="E354" s="2"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>15</v>
       </c>
@@ -5545,7 +5541,7 @@
       </c>
       <c r="E355" s="2"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>116</v>
       </c>
@@ -5558,7 +5554,7 @@
       </c>
       <c r="E356" s="2"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>117</v>
       </c>
@@ -5571,7 +5567,7 @@
       </c>
       <c r="E357" s="2"/>
     </row>
-    <row r="358" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>157</v>
       </c>
@@ -5582,11 +5578,11 @@
         <v>5</v>
       </c>
       <c r="D358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E358" s="2"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>11</v>
       </c>
@@ -5598,7 +5594,7 @@
       </c>
       <c r="E359" s="2"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>103</v>
       </c>
@@ -5610,7 +5606,7 @@
       </c>
       <c r="E360" s="2"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>119</v>
       </c>
@@ -5622,7 +5618,7 @@
       </c>
       <c r="E361" s="2"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>120</v>
       </c>
@@ -5634,7 +5630,7 @@
       </c>
       <c r="E362" s="2"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>121</v>
       </c>
@@ -5646,7 +5642,7 @@
       </c>
       <c r="E363" s="2"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>15</v>
       </c>
@@ -5658,7 +5654,7 @@
       </c>
       <c r="E364" s="2"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>90</v>
       </c>
@@ -5670,7 +5666,7 @@
       </c>
       <c r="E365" s="2"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>30</v>
       </c>
@@ -5682,242 +5678,242 @@
       </c>
       <c r="E366" s="2"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="2"/>
       <c r="E367" s="2"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="2"/>
       <c r="E368" s="2"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="2"/>
       <c r="E369" s="2"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="2"/>
       <c r="E370" s="2"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="2"/>
       <c r="E371" s="2"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="2"/>
       <c r="E372" s="2"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="2"/>
       <c r="E373" s="2"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="2"/>
       <c r="E374" s="2"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="2"/>
       <c r="E375" s="2"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="2"/>
       <c r="E376" s="2"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="2"/>
       <c r="E377" s="2"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="2"/>
       <c r="E378" s="2"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="2"/>
       <c r="E379" s="2"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="2"/>
       <c r="E380" s="2"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="2"/>
       <c r="E381" s="2"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="2"/>
       <c r="E382" s="2"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="2"/>
       <c r="E383" s="2"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="2"/>
       <c r="E384" s="2"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" s="2"/>
       <c r="E385" s="2"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" s="2"/>
       <c r="E386" s="2"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" s="2"/>
       <c r="E387" s="2"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="2"/>
       <c r="E388" s="2"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" s="2"/>
       <c r="E389" s="2"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" s="2"/>
       <c r="E390" s="2"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" s="2"/>
       <c r="E391" s="2"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" s="2"/>
       <c r="E392" s="2"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" s="2"/>
       <c r="E393" s="2"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" s="2"/>
       <c r="E394" s="2"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" s="2"/>
       <c r="E395" s="2"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" s="2"/>
       <c r="E396" s="2"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" s="2"/>
       <c r="E397" s="2"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" s="2"/>
       <c r="E398" s="2"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" s="2"/>
       <c r="E399" s="2"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" s="2"/>
       <c r="E400" s="2"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" s="2"/>
       <c r="E401" s="2"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" s="2"/>
       <c r="E402" s="2"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" s="2"/>
       <c r="E403" s="2"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" s="2"/>
       <c r="E404" s="2"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" s="2"/>
       <c r="E405" s="2"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" s="2"/>
       <c r="E406" s="2"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" s="2"/>
       <c r="E407" s="2"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" s="2"/>
       <c r="E408" s="2"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" s="2"/>
       <c r="E409" s="2"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" s="2"/>
       <c r="E410" s="2"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" s="2"/>
       <c r="E411" s="2"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" s="2"/>
       <c r="E412" s="2"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" s="2"/>
       <c r="E414" s="2"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" s="2"/>
       <c r="E415" s="2"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" s="2"/>
       <c r="E416" s="2"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" s="2"/>
       <c r="E417" s="2"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" s="2"/>
       <c r="E418" s="2"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" s="2"/>
       <c r="E419" s="2"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" s="2"/>
       <c r="E420" s="2"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" s="2"/>
       <c r="E421" s="2"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E422" s="2"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E423" s="2"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E424" s="2"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E425" s="2"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E426" s="2"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E427" s="2"/>
     </row>
   </sheetData>
@@ -5927,21 +5923,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C450"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C449"/>
   <sheetViews>
-    <sheetView topLeftCell="A442" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E443" sqref="E443"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="9.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -5952,7 +5948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
@@ -5963,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>122</v>
       </c>
@@ -5974,7 +5970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>122</v>
       </c>
@@ -5985,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>122</v>
       </c>
@@ -5996,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>122</v>
       </c>
@@ -6007,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>122</v>
       </c>
@@ -6018,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>122</v>
       </c>
@@ -6029,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>122</v>
       </c>
@@ -6040,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>123</v>
       </c>
@@ -6051,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>123</v>
       </c>
@@ -6062,1712 +6058,1712 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>123</v>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>131</v>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>11</v>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>31</v>
+      <c r="B54" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>32</v>
+      <c r="B55" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>34</v>
+      <c r="B58" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>15</v>
+        <v>128</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>11</v>
+      <c r="B78" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>24</v>
+      <c r="B79" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>29</v>
+      <c r="B83" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>39</v>
+      <c r="B84" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>11</v>
+      <c r="B87" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>40</v>
+      <c r="B88" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>23</v>
+      <c r="B89" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>41</v>
+      <c r="B91" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>21</v>
+      <c r="B93" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>25</v>
+      <c r="B94" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>43</v>
+      <c r="B105" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>48</v>
+      <c r="B106" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>14</v>
+      <c r="B111" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>46</v>
+      <c r="B112" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>11</v>
+      <c r="B120" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>14</v>
+      <c r="B121" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>15</v>
+        <v>134</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>55</v>
+        <v>135</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>140</v>
+      <c r="B143" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>57</v>
+        <v>136</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>141</v>
+      <c r="B153" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C154" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C155" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C156" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C157" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C158" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C159" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C160" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C161" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C162" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C163" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C164" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C165" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C166" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>137</v>
       </c>
@@ -7778,3116 +7774,3105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C168" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C169" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C170" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C171" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C172" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C173" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C174" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C175" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C176" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C177" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C178" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C179" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>56</v>
+        <v>139</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C180" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C181" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>129</v>
+      <c r="B183" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C187" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C188" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C189" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B191" s="4" t="s">
-        <v>135</v>
+      <c r="B191" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C194" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C195" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C196" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C197" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C198" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C199" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>57</v>
+        <v>141</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C200" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C201" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C202" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>125</v>
+      <c r="B203" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C203" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C204" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C205" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C206" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C207" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C208" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C209" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C210" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C211" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C212" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>15</v>
+    <row r="213" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A213" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C213" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B214" s="4" t="s">
-        <v>135</v>
+      <c r="B214" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C214" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C215" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="C216" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C217" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C218" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C219" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C220" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C221" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C222" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C223" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C224" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>15</v>
+        <v>144</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C225" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C226" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C227" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B228" s="4" t="s">
-        <v>125</v>
+      <c r="B228" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C228" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="C229" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C230" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C231" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C232" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C233" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C234" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C235" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="C236" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C237" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C238" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="C239" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="C240" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C241" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C242" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C243" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C244" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C245" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C246" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C247" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B248" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B248" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="C248" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C249" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C250" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B251" s="5" t="s">
-        <v>149</v>
+      <c r="B251" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C251" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B252" s="3" t="s">
-        <v>148</v>
+      <c r="B252" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C252" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="C253" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C254" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C255" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C256" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C257" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C258" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C259" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C260" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C261" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C262" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C263" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C264" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C265" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="C266" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C267" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C268" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C269" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C270" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C271" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C272" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C273" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C274" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="C275" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C276" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C277" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="C278" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C279" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C280" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C281" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="C282" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="C283" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C284" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C285" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C286" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C287" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C288" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C289" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C290" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C291" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C292" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="C293" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C294" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C295" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C296" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="C297" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C298" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C299" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C300" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C301" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C302" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C303" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C304" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C305" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C306" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C307" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C308" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="C309" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C310" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C311" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C312" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C313" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C314" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C315" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C316" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C317" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C318" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="C319" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="C320" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C321" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C322" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C323" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C324" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C325" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C326" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C327" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="C328" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="C329" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="C330" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C331" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C332" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C333" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C334" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C335" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C336" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C337" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C338" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C339" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C340" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C341" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C342" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C343" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C344" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C345" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C346" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="C347" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="C348" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="C349" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C350" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C351" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C352" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C353" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C354" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C355" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="C356" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C357" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C358" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="C359" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C360" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C361" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C362" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C363" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C364" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C365" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C366" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C367" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C368" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C369" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C370" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C371" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C372" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="C373" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C374" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="C375" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C376" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C377" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C378" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C379" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C380" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C381" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C382" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C383" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="C384" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C385" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="5" t="s">
-        <v>156</v>
+    <row r="386" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A386" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C386" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A387" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C387" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A388" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C388" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A389" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C389" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A390" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C390" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A391" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="C391" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A392" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C392" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A393" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C393" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A394" s="4" t="s">
-        <v>172</v>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A394" s="5">
+        <v>862756</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C394" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" s="5">
         <v>862756</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C395" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" s="5">
         <v>862756</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C396" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" s="5">
         <v>862756</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="C397" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" s="5">
         <v>862756</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="C398" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" s="5">
         <v>862756</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C399" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" s="5">
-        <v>862756</v>
-      </c>
-      <c r="B400" s="5" t="s">
-        <v>27</v>
+        <v>818187</v>
+      </c>
+      <c r="B400" s="5">
+        <v>727247</v>
       </c>
       <c r="C400" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" s="5">
         <v>818187</v>
       </c>
-      <c r="B401" s="5">
-        <v>727247</v>
+      <c r="B401" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C401" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" s="5">
         <v>818187</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C402" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" s="5">
         <v>818187</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C403" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404" s="5">
         <v>818187</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C404" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405" s="5">
         <v>818187</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C405" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A406" s="5">
         <v>818187</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C406" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A407" s="5">
         <v>818187</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C407" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A408" s="5">
-        <v>818187</v>
-      </c>
-      <c r="B408" s="5" t="s">
-        <v>106</v>
+        <v>728003</v>
+      </c>
+      <c r="B408" s="5">
+        <v>635750</v>
       </c>
       <c r="C408" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A409" s="5">
         <v>728003</v>
       </c>
       <c r="B409" s="5">
-        <v>635750</v>
+        <v>677407</v>
       </c>
       <c r="C409" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410" s="5">
         <v>728003</v>
       </c>
       <c r="B410" s="5">
-        <v>677407</v>
+        <v>727247</v>
       </c>
       <c r="C410" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411" s="5">
         <v>728003</v>
       </c>
-      <c r="B411" s="5">
-        <v>727247</v>
+      <c r="B411" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C411" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A412" s="5">
         <v>728003</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C412" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413" s="5">
         <v>728003</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C413" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A414" s="5">
         <v>728003</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C414" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A415" s="5">
         <v>728003</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C415" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A416" s="5">
         <v>728003</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C416" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A417" s="5">
         <v>728003</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C417" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A418" s="5">
         <v>728003</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C418" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A419" s="5">
         <v>728003</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C419" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A420" s="5">
         <v>728003</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C420" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A421" s="5">
         <v>728003</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C421" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422" s="5">
         <v>728003</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C422" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A423" s="5">
         <v>728003</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C423" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A424" s="5">
         <v>728003</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C424" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A425" s="5">
         <v>728003</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C425" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A426" s="5">
         <v>728003</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C426" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A427" s="5">
-        <v>728003</v>
-      </c>
-      <c r="B427" s="5" t="s">
-        <v>27</v>
+        <v>817696</v>
+      </c>
+      <c r="B427" s="5">
+        <v>677407</v>
       </c>
       <c r="C427" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A428" s="5">
         <v>817696</v>
       </c>
       <c r="B428" s="5">
-        <v>677407</v>
+        <v>817819</v>
       </c>
       <c r="C428" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A429" s="5">
         <v>817696</v>
       </c>
-      <c r="B429" s="5">
-        <v>817819</v>
+      <c r="B429" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C429" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A430" s="5">
         <v>817696</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C430" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A431" s="5">
         <v>817696</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C431" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A432" s="5">
         <v>817696</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C432" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A433" s="5">
         <v>817696</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C433" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434" s="5">
         <v>817696</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C434" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A435" s="5">
         <v>817696</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C435" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A436" s="5">
         <v>817696</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C436" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A437" s="5">
         <v>817696</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C437" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A438" s="5">
         <v>817696</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="C438" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A439" s="5">
         <v>817696</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C439" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A440" s="5">
         <v>817696</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C440" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A441" s="5">
         <v>817696</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C441" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="5">
-        <v>817696</v>
+    <row r="442" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A442" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C442" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A443" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C443" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A444" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C444" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A445" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C445" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A446" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C446" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A447" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="C447" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A448" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C448" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A449" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C449" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A450" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B450" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C450" s="3">
         <v>1</v>
       </c>
     </row>
